--- a/Imitation_charts/Conditional_format_micrographs.xlsx
+++ b/Imitation_charts/Conditional_format_micrographs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mygit\Some_of_Excel\Imitation_charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D7A3FA-CEF4-4B65-A8F7-5274BEC7EF30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DC42C2-3767-4539-B231-847FD4CF6D8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>企业声誉</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,16 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>责任1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>责任2</t>
-  </si>
-  <si>
-    <t>责任3</t>
-  </si>
-  <si>
     <t>经济责任</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,10 +102,6 @@
     <t>产品和服务质量4</t>
   </si>
   <si>
-    <t>环境责任</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>雇佣情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,6 +139,81 @@
   </si>
   <si>
     <t>强烈不同意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企
+业
+声
+誉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社
+会
+责
+任</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雇
+佣
+情
+况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经责
+济任</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    产质
+    品量
+服
+务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○同意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○不知道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○不同意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○强烈不同意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>○</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>强烈同意</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -160,7 +221,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,16 +236,177 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2EA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -192,19 +414,235 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="mediumDashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="mediumDashed">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.89996032593768116"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.89996032593768116"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF58759D"/>
+      <color rgb="FFCFE2EA"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -479,34 +917,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.4140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -518,23 +956,23 @@
       </c>
       <c r="C2" s="1">
         <f ca="1">RANDBETWEEN(0,50)/100</f>
-        <v>0.37</v>
+        <v>0.16</v>
       </c>
       <c r="D2" s="1">
         <f t="shared" ref="D2:G17" ca="1" si="0">RANDBETWEEN(0,50)/100</f>
-        <v>0.05</v>
+        <v>0.38</v>
       </c>
       <c r="E2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38</v>
+        <v>0.11</v>
       </c>
       <c r="F2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.02</v>
+        <v>0.41</v>
       </c>
       <c r="G2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -543,23 +981,23 @@
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:G25" ca="1" si="1">RANDBETWEEN(0,50)/100</f>
-        <v>0.32</v>
+        <v>0.05</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13</v>
+        <v>0.23</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ca="1" si="0"/>
+        <v>0.17</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>0.49</v>
       </c>
-      <c r="F3" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.26</v>
-      </c>
       <c r="G3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -568,15 +1006,15 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49</v>
+        <v>0.09</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28999999999999998</v>
+        <v>0.08</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42</v>
+        <v>0.13</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -584,7 +1022,7 @@
       </c>
       <c r="G4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -593,23 +1031,23 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36</v>
+        <v>0.01</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48</v>
+        <v>0.2</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.09</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" ca="1" si="0"/>
+        <v>0.11</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>0.5</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.02</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -618,15 +1056,15 @@
       </c>
       <c r="C6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28000000000000003</v>
+        <v>0.15</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -634,7 +1072,7 @@
       </c>
       <c r="G6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -642,86 +1080,86 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>0.11</v>
       </c>
-      <c r="E7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.11</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
-      </c>
       <c r="G7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" ca="1" si="1"/>
+        <v>0.18</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="D8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.02</v>
-      </c>
       <c r="F8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48</v>
+        <v>0.26</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.09</v>
+        <v>0.42</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
+        <v>0.42</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18</v>
+        <v>0.33</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38</v>
+        <v>0.47</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -729,15 +1167,15 @@
       </c>
       <c r="E10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -745,23 +1183,23 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24</v>
+        <v>0.45</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16</v>
+        <v>0.46</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28000000000000003</v>
+        <v>0.48</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -770,98 +1208,98 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32</v>
+        <v>0.43</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
+        <v>0.06</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49</v>
+        <v>0.08</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19</v>
+        <v>0.01</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18</v>
+        <v>0.46</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38</v>
+        <v>0.24</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17</v>
+        <v>0.47</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25</v>
+        <v>0.37</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32</v>
+        <v>0.1</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" ca="1" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>0.17</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.26</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45</v>
+        <v>0.36</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -870,266 +1308,1039 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15</v>
+        <v>0.42</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
+        <v>0.38</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3</v>
+        <v>0.09</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31</v>
+        <v>0.04</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28000000000000003</v>
+        <v>0.02</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.12</v>
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.02</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.39</v>
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.4</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.34</v>
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.45</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
         <v>0.47</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.16</v>
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.21</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.12</v>
+      </c>
+      <c r="D19" s="1">
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.46</v>
+      </c>
+      <c r="E19" s="1">
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.44</v>
+      </c>
+      <c r="F19" s="1">
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.1</v>
+      </c>
+      <c r="G19" s="1">
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
         <v>0.11</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.06</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.44</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.45</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.4</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.3</v>
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.16</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.15</v>
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.27</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.26</v>
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.35</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.1</v>
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.17</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.39</v>
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.08</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
       <c r="C21" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.14000000000000001</v>
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.21</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.28000000000000003</v>
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.38</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.45</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.08</v>
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.35</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.38</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.45</v>
+      </c>
+      <c r="D22" s="1">
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E22" s="1">
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.25</v>
+      </c>
+      <c r="F22" s="1">
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.13</v>
+      </c>
+      <c r="G22" s="1">
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5">
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.36</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" ref="D29:G44" ca="1" si="2">RANDBETWEEN(0,50)/100</f>
+        <v>0.33</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.03</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.49</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2"/>
+      <c r="B30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6">
+        <f t="shared" ref="C30:G52" ca="1" si="3">RANDBETWEEN(0,50)/100</f>
         <v>0.5</v>
       </c>
-      <c r="D22" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.18</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="F22" s="1">
-        <f t="shared" ca="1" si="1"/>
+      <c r="D30" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.42</v>
+      </c>
+      <c r="E30" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.08</v>
+      </c>
+      <c r="F30" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.46</v>
+      </c>
+      <c r="G30" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2"/>
+      <c r="B31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.38</v>
+      </c>
+      <c r="D31" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.43</v>
+      </c>
+      <c r="E31" s="6">
+        <f t="shared" ca="1" si="2"/>
         <v>0.27</v>
       </c>
-      <c r="G22" s="1">
-        <f t="shared" ca="1" si="1"/>
+      <c r="F31" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.33</v>
+      </c>
+      <c r="G31" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2"/>
+      <c r="B32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.27</v>
+      </c>
+      <c r="D32" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.32</v>
+      </c>
+      <c r="E32" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F32" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.35</v>
+      </c>
+      <c r="G32" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.27</v>
+      </c>
+      <c r="D33" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.16</v>
+      </c>
+      <c r="E33" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.03</v>
+      </c>
+      <c r="F33" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G33" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="26">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="D34" s="26">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.49</v>
+      </c>
+      <c r="E34" s="26">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="F34" s="26">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="26">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="7"/>
+      <c r="B35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="27">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.23</v>
+      </c>
+      <c r="D35" s="27">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.11</v>
+      </c>
+      <c r="E35" s="27">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.22</v>
+      </c>
+      <c r="F35" s="27">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.22</v>
+      </c>
+      <c r="G35" s="27">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="7"/>
+      <c r="B36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="27">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="D36" s="27">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.38</v>
+      </c>
+      <c r="E36" s="27">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="F36" s="27">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.43</v>
+      </c>
+      <c r="G36" s="27">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="28">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.46</v>
+      </c>
+      <c r="D37" s="28">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="E37" s="28">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="28">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.46</v>
+      </c>
+      <c r="G37" s="28">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.39</v>
+      </c>
+      <c r="D38" s="29">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.21</v>
+      </c>
+      <c r="E38" s="29">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.31</v>
+      </c>
+      <c r="F38" s="29">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.44</v>
+      </c>
+      <c r="G38" s="29">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="9"/>
+      <c r="B39" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="30">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.11</v>
+      </c>
+      <c r="D39" s="30">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E39" s="30">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.16</v>
+      </c>
+      <c r="F39" s="30">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.38</v>
+      </c>
+      <c r="G39" s="30">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="9"/>
+      <c r="B40" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="30">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.34</v>
+      </c>
+      <c r="D40" s="30">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.34</v>
+      </c>
+      <c r="E40" s="30">
+        <f t="shared" ca="1" si="2"/>
         <v>0.47</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="D23" s="1">
-        <f t="shared" ca="1" si="1"/>
+      <c r="F40" s="30">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="G40" s="30">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="9"/>
+      <c r="B41" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="30">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.39</v>
+      </c>
+      <c r="D41" s="30">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.19</v>
+      </c>
+      <c r="E41" s="30">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="F41" s="30">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.21</v>
+      </c>
+      <c r="G41" s="30">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9"/>
+      <c r="B42" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="31">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.38</v>
+      </c>
+      <c r="D42" s="31">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.31</v>
+      </c>
+      <c r="E42" s="31">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.33</v>
+      </c>
+      <c r="F42" s="31">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="G42" s="31">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="32">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.16</v>
+      </c>
+      <c r="D43" s="32">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.33</v>
+      </c>
+      <c r="E43" s="32">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="F43" s="32">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.35</v>
+      </c>
+      <c r="G43" s="32">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="15"/>
+      <c r="B44" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="33">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.21</v>
+      </c>
+      <c r="D44" s="33">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="E44" s="33">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F44" s="33">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.32</v>
+      </c>
+      <c r="G44" s="33">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="34">
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.37</v>
+      </c>
+      <c r="D45" s="34">
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.47</v>
+      </c>
+      <c r="E45" s="34">
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F45" s="34">
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.02</v>
+      </c>
+      <c r="G45" s="34">
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="20"/>
+      <c r="B46" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="34">
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.33</v>
+      </c>
+      <c r="D46" s="34">
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.4</v>
+      </c>
+      <c r="E46" s="34">
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.06</v>
+      </c>
+      <c r="F46" s="34">
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.44</v>
+      </c>
+      <c r="G46" s="34">
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="20"/>
+      <c r="B47" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="34">
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.12</v>
+      </c>
+      <c r="D47" s="34">
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.41</v>
+      </c>
+      <c r="E47" s="34">
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.16</v>
+      </c>
+      <c r="F47" s="34">
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.38</v>
+      </c>
+      <c r="G47" s="34">
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="20"/>
+      <c r="B48" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="34">
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
         <v>0.34</v>
       </c>
-      <c r="E23" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.17</v>
-      </c>
-      <c r="F23" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="G23" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.21</v>
-      </c>
-      <c r="D24" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.19</v>
-      </c>
-      <c r="F24" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G24" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.18</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E25" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.49</v>
-      </c>
-      <c r="F25" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.37</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.43</v>
-      </c>
-    </row>
+      <c r="D48" s="34">
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.48</v>
+      </c>
+      <c r="E48" s="34">
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.34</v>
+      </c>
+      <c r="F48" s="34">
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.4</v>
+      </c>
+      <c r="G48" s="34">
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="20"/>
+      <c r="B49" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="34">
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.02</v>
+      </c>
+      <c r="D49" s="34">
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.03</v>
+      </c>
+      <c r="E49" s="34">
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.33</v>
+      </c>
+      <c r="F49" s="34">
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.36</v>
+      </c>
+      <c r="G49" s="34">
+        <f ca="1">RANDBETWEEN(0,50)/100</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A49"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C29:G33">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3B53579F-472F-46E3-BEFE-1D54A769D988}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{09EC90F4-96B4-45DA-BB25-5F6AE0F9792E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="lessThan">
+      <formula>0.12</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="lessThan">
+      <formula>0.12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:G37">
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="5" tint="-0.499984740745262"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6DCA8C5C-9DFF-40AD-AD86-F7F5D8B8902C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="5" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D623CD7A-37BD-4E3B-8E24-6077CEDFFC40}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
+      <formula>0.12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38:G42">
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2E80F6D7-CE08-4413-BC66-A920C10A5CC6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{45991EF7-2C91-4A56-A4F4-E0E78D0B822A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
+      <formula>0.12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43:G44">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B7B7F1AE-501A-45A9-B3D5-B6CA5B1247C2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="2" tint="-0.749992370372631"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5FFA31BC-CBE7-445D-992C-5B87AA157C1E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
+      <formula>0.12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45:G49">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7" tint="-0.499984740745262"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1EBA74C5-8C77-4AF8-9081-4DFAD7F0C7F9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{779573AE-9C70-4725-9E4A-1BB81FC68A26}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0.12</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3B53579F-472F-46E3-BEFE-1D54A769D988}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{09EC90F4-96B4-45DA-BB25-5F6AE0F9792E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C29:G33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="16" id="{34F7CBB9-8881-4A7E-B2C0-0CF1E5282EFB}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C28:G28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6DCA8C5C-9DFF-40AD-AD86-F7F5D8B8902C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{D623CD7A-37BD-4E3B-8E24-6077CEDFFC40}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C34:G37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2E80F6D7-CE08-4413-BC66-A920C10A5CC6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{45991EF7-2C91-4A56-A4F4-E0E78D0B822A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C38:G42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B7B7F1AE-501A-45A9-B3D5-B6CA5B1247C2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{5FFA31BC-CBE7-445D-992C-5B87AA157C1E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C43:G44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1EBA74C5-8C77-4AF8-9081-4DFAD7F0C7F9}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{779573AE-9C70-4725-9E4A-1BB81FC68A26}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C45:G49</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>